--- a/biology/Zoologie/Didelphidae/Didelphidae.xlsx
+++ b/biology/Zoologie/Didelphidae/Didelphidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didelphidés, Opossums, Opossums d'Amérique
 Les Didelphidés, Opossums, Opossums d'Amérique ou Sarigues (Didelphidae) est une famille des mammifères marsupiaux d'Amérique. L'aire de distribution des Didelphidés s'étend du sud du Canada au nord de l'Argentine.
@@ -513,11 +525,13 @@
           <t>Nomenclature et étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom « opossum » vient du mot algonquin wapathemwa.
 À l'origine la dénomination sarigue désignait l'ensemble des didelphidés, celle d'opossum étant réservée à l'espèce Didelphis marsupialis.
-Opossum ou possum ? Les anglophones utilisent le mot possum, abréviation familière d'opossum, pour désigner l'opossum de Virginie ainsi que d'autres espèces de marsupiaux du continent américain appartenant à l'ordre des Didelphidae ou des Paucituberculata. Par extension les australiens et néo-zélandais désignent également par cette abréviation les marsupiaux de l'ordre des Phalangeriformes d'Océanie[1]. En français l'usage du mot « possum » est un anglicisme dû à un abus de traduction du nom d'animaux appelés possum en anglais mais opossum, phalanger, couscous, etc. par les francophones.
+Opossum ou possum ? Les anglophones utilisent le mot possum, abréviation familière d'opossum, pour désigner l'opossum de Virginie ainsi que d'autres espèces de marsupiaux du continent américain appartenant à l'ordre des Didelphidae ou des Paucituberculata. Par extension les australiens et néo-zélandais désignent également par cette abréviation les marsupiaux de l'ordre des Phalangeriformes d'Océanie. En français l'usage du mot « possum » est un anglicisme dû à un abus de traduction du nom d'animaux appelés possum en anglais mais opossum, phalanger, couscous, etc. par les francophones.
 </t>
         </is>
       </c>
@@ -546,14 +560,85 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ils sont divisés en deux sous-familles : les Caluromyinae et les Didelphinae.
-Sous-familles selon ITIS
-sous-famille Caluromyinae Kirsch, 1977
-sous-famille Didelphinae Gray, 1821
-Sous-familles selon MSW
-sous-famille Caluromyinae
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont divisés en deux sous-familles : les Caluromyinae et les Didelphinae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Didelphidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Didelphidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-familles selon ITIS</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>sous-famille Caluromyinae Kirsch, 1977
+sous-famille Didelphinae Gray, 1821</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Didelphidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Didelphidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-familles selon MSW</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>sous-famille Caluromyinae
 Caluromys
 Caluromysiops
 Glironia
@@ -575,31 +660,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Didelphidae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Didelphidae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il semble que le fameux cliché de la sarigue portant ses petits enroulés sur sa queue ne concerne pas que le groupe des philanders. Une femelle de Didelphis marsupialis (manicou) a été observée en Martinique portant 5 à 6 petits sur son dos, l'extrémité de la queue des petits enroulée à celle de la mère, cette dernière parallèle à la ligne du dos et ne remontant que vers la pointe.
 </t>
